--- a/result_all_noniid.xlsx
+++ b/result_all_noniid.xlsx
@@ -4,15 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12520" tabRatio="765" activeTab="4"/>
+    <workbookView windowWidth="27900" windowHeight="12520" tabRatio="765" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="noniid_1_avg" sheetId="8" r:id="rId1"/>
     <sheet name="noniid_1_nag" sheetId="9" r:id="rId2"/>
-    <sheet name="noniid_2_avg" sheetId="10" r:id="rId3"/>
-    <sheet name="noniid_2_nag" sheetId="11" r:id="rId4"/>
-    <sheet name="noniid_3_avg" sheetId="12" r:id="rId5"/>
-    <sheet name="noniid_3_nag" sheetId="13" r:id="rId6"/>
+    <sheet name="noniid_1_mon" sheetId="14" r:id="rId3"/>
+    <sheet name="noniid_2_avg" sheetId="10" r:id="rId4"/>
+    <sheet name="noniid_2_nag" sheetId="11" r:id="rId5"/>
+    <sheet name="noniid_2_mon" sheetId="15" r:id="rId6"/>
+    <sheet name="noniid_3_avg" sheetId="12" r:id="rId7"/>
+    <sheet name="noniid_3_nag" sheetId="13" r:id="rId8"/>
+    <sheet name="noniid_3_mon" sheetId="16" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -21,10 +24,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -36,9 +39,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -50,6 +68,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -65,34 +84,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,7 +117,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,29 +168,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,14 +176,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,7 +191,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,55 +245,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,7 +263,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,25 +323,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,19 +341,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,25 +353,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,13 +365,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,8 +388,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -400,32 +403,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,6 +430,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -460,22 +459,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,153 +487,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -964,427 +970,427 @@
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1">
+      <c r="A1" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <v>40</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="2">
         <v>1.40337952971458</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="2">
         <v>1.2846331960836</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="2">
         <v>76.06</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>80</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0.575331844389438</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>0.538510886726865</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>84.7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>120</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>0.521235615015029</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>0.425993625525456</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>87.17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>160</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>0.420982763171196</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>0.368037781612888</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>89.42</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>200</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>0.348126161843538</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>0.330434129496288</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>90.7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>240</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>0.371658511459827</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>0.317458146649181</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>90.94</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>280</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>0.362603701651096</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>0.299047415281177</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>91.15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>320</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>0.294151697307825</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0.290776756206515</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>91.67</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>360</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>0.338816307485103</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>0.280192719950417</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>91.75</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>400</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>0.457944929599761</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>0.290287769191963</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>90.7</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>440</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>0.24203435704112</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>0.262356425546536</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>92.55</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>480</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>0.22139005176723</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>0.247226182537473</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>92.97</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>520</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>0.345308259129524</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>0.242637938754573</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>92.78</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>560</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>0.262543022632598</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>0.230195379940567</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>93.36</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>600</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>0.250042703002691</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>0.228363872001505</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>93.37</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>640</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>0.230872379615902</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>0.216226550542814</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>94.02</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>680</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>0.233263686299324</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>0.210611401849491</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>93.73</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>720</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>0.15567747503519</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>0.20103201635514</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>94.15</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>760</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>0.198324544355273</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>0.195112876748298</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>94.2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>800</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>0.210331628099083</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>0.192781859213949</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>94.18</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>840</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>0.208043649792671</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>0.188238641235289</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>94.47</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>880</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>0.211814930662512</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>0.180620798829254</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>94.85</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>920</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>0.115726543590426</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>0.173262577076816</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>94.95</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>960</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>0.171392230316996</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>0.169071949709942</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>95.12</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>1000</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>0.182851266115903</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>0.165826287737507</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>95.1</v>
       </c>
     </row>
@@ -1406,427 +1412,427 @@
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1">
+      <c r="A1" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <v>40</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="2">
         <v>0.716628745198249</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="2">
         <v>0.51101119142429</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="2">
         <v>87.92</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>80</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0.369975760579109</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>0.263160903433895</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>92.05</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>120</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>0.304916527122259</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>0.201250199038701</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>93.82</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>160</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>0.218459390103816</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>0.160551706744227</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>95.05</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>200</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>0.181615313515067</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>0.135445967814914</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>95.82</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>240</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>0.170657597482204</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>0.116939113671138</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>96.29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>280</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>0.107812663540244</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>0.0982792871903367</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>96.89</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>320</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>0.171148000285029</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0.0867292967025831</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>97.28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>360</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>0.113033477216959</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>0.0755117350542668</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>97.5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>400</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>0.101247719489037</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>0.072048998956871</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>97.81</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>440</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>0.0622885175980627</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>0.0654890253030617</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>98.04</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>480</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>0.0919623451773077</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>0.0614960931573703</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>98.04</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>520</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>0.044137239921838</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>0.0602763501073049</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>98.03</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>560</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>0.0680054523982107</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>0.0527306300985395</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>98.17</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>600</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>0.131582895759493</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>0.0507379754232895</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>98.29</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>640</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>0.0383996213786304</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>0.0475628211275692</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>98.39</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>680</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>0.0452772192656993</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>0.0485992933872636</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>98.44</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>720</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>0.0434732236899435</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>0.0464164933195681</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>98.41</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>760</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>0.0489217801950871</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>0.0438436162391096</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>98.65</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>800</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>0.0694332718849182</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>0.040218732420616</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>98.64</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>840</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>0.0328934239223599</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>0.0422217270906623</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>98.54</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>880</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>0.0118613771628588</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>0.0404932941955211</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>98.55</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>920</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>0.0300242545781657</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>0.0398124812577204</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>98.69</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>960</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>0.0419967859052121</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>0.0407051630629594</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>98.61</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>1000</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>0.0314757674932479</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>0.0366178397652782</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>98.8</v>
       </c>
     </row>
@@ -1842,10 +1848,13 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E25"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="4" width="12.9230769230769"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1">
@@ -1855,13 +1864,13 @@
         <v>40</v>
       </c>
       <c r="C1" s="1">
-        <v>1.79168167710304</v>
+        <v>2.03411036729812</v>
       </c>
       <c r="D1" s="1">
-        <v>1.70782434105113</v>
+        <v>1.79647622974055</v>
       </c>
       <c r="E1" s="1">
-        <v>77.16</v>
+        <v>63.86</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1872,13 +1881,13 @@
         <v>80</v>
       </c>
       <c r="C2" s="1">
-        <v>0.663644105195999</v>
+        <v>0.825077384710311</v>
       </c>
       <c r="D2" s="1">
-        <v>0.605348975225618</v>
+        <v>0.579684136304885</v>
       </c>
       <c r="E2" s="1">
-        <v>84.82</v>
+        <v>82.89</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1889,13 +1898,13 @@
         <v>120</v>
       </c>
       <c r="C3" s="1">
-        <v>0.631317988038063</v>
+        <v>0.43324176967144</v>
       </c>
       <c r="D3" s="1">
-        <v>0.433455196155864</v>
+        <v>0.52477581580733</v>
       </c>
       <c r="E3" s="1">
-        <v>87.82</v>
+        <v>88.68</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1906,13 +1915,13 @@
         <v>160</v>
       </c>
       <c r="C4" s="1">
-        <v>0.5296131670475</v>
+        <v>0.307970196008682</v>
       </c>
       <c r="D4" s="1">
-        <v>0.373507554648788</v>
+        <v>0.443155471116873</v>
       </c>
       <c r="E4" s="1">
-        <v>89.19</v>
+        <v>90.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1923,13 +1932,13 @@
         <v>200</v>
       </c>
       <c r="C5" s="1">
-        <v>0.346590764820575</v>
+        <v>0.279760377481579</v>
       </c>
       <c r="D5" s="1">
-        <v>0.339970389274275</v>
+        <v>0.33681633031577</v>
       </c>
       <c r="E5" s="1">
-        <v>89.93</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1940,13 +1949,13 @@
         <v>240</v>
       </c>
       <c r="C6" s="1">
-        <v>0.344974938780069</v>
+        <v>0.242588333785533</v>
       </c>
       <c r="D6" s="1">
-        <v>0.316198626284007</v>
+        <v>0.267152638856772</v>
       </c>
       <c r="E6" s="1">
-        <v>90.77</v>
+        <v>92.22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1957,13 +1966,13 @@
         <v>280</v>
       </c>
       <c r="C7" s="1">
-        <v>0.47679179161787</v>
+        <v>0.215663820505142</v>
       </c>
       <c r="D7" s="1">
-        <v>0.313194109755716</v>
+        <v>0.228941014665327</v>
       </c>
       <c r="E7" s="1">
-        <v>90.89</v>
+        <v>93.43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1974,13 +1983,13 @@
         <v>320</v>
       </c>
       <c r="C8" s="1">
-        <v>0.22492416203022</v>
+        <v>0.225728126242756</v>
       </c>
       <c r="D8" s="1">
-        <v>0.285657050788022</v>
+        <v>0.203915872605173</v>
       </c>
       <c r="E8" s="1">
-        <v>91.85</v>
+        <v>94.08</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1991,13 +2000,13 @@
         <v>360</v>
       </c>
       <c r="C9" s="1">
-        <v>0.241854783147573</v>
+        <v>0.242742236703634</v>
       </c>
       <c r="D9" s="1">
-        <v>0.270957863634559</v>
+        <v>0.180868165176005</v>
       </c>
       <c r="E9" s="1">
-        <v>92.05</v>
+        <v>94.63</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2008,13 +2017,13 @@
         <v>400</v>
       </c>
       <c r="C10" s="1">
-        <v>0.414120890200138</v>
+        <v>0.21262577548623</v>
       </c>
       <c r="D10" s="1">
-        <v>0.267171057546214</v>
+        <v>0.158415538537654</v>
       </c>
       <c r="E10" s="1">
-        <v>92.33</v>
+        <v>95.28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2025,13 +2034,13 @@
         <v>440</v>
       </c>
       <c r="C11" s="1">
-        <v>0.357823476195335</v>
+        <v>0.157924184575676</v>
       </c>
       <c r="D11" s="1">
-        <v>0.256082337515749</v>
+        <v>0.140045017549756</v>
       </c>
       <c r="E11" s="1">
-        <v>92.7</v>
+        <v>95.73</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2042,13 +2051,13 @@
         <v>480</v>
       </c>
       <c r="C12" s="1">
-        <v>0.275702785700559</v>
+        <v>0.15648878365755</v>
       </c>
       <c r="D12" s="1">
-        <v>0.24752574399778</v>
+        <v>0.127379469775185</v>
       </c>
       <c r="E12" s="1">
-        <v>92.68</v>
+        <v>96.19</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2059,13 +2068,13 @@
         <v>520</v>
       </c>
       <c r="C13" s="1">
-        <v>0.247752025723457</v>
+        <v>0.0592285459861159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.242230397643177</v>
+        <v>0.121513568389876</v>
       </c>
       <c r="E13" s="1">
-        <v>92.7</v>
+        <v>96.11</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2076,13 +2085,13 @@
         <v>560</v>
       </c>
       <c r="C14" s="1">
-        <v>0.195792105048894</v>
+        <v>0.103942025452852</v>
       </c>
       <c r="D14" s="1">
-        <v>0.229272457278648</v>
+        <v>0.107549243897294</v>
       </c>
       <c r="E14" s="1">
-        <v>93.2</v>
+        <v>96.61</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2093,13 +2102,13 @@
         <v>600</v>
       </c>
       <c r="C15" s="1">
-        <v>0.179797556251287</v>
+        <v>0.114213644526898</v>
       </c>
       <c r="D15" s="1">
-        <v>0.216149013608124</v>
+        <v>0.0985575424163204</v>
       </c>
       <c r="E15" s="1">
-        <v>93.74</v>
+        <v>96.93</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2110,13 +2119,13 @@
         <v>640</v>
       </c>
       <c r="C16" s="1">
-        <v>0.256562262773513</v>
+        <v>0.0740049895830452</v>
       </c>
       <c r="D16" s="1">
-        <v>0.213523303247561</v>
+        <v>0.0919211512004399</v>
       </c>
       <c r="E16" s="1">
-        <v>93.6</v>
+        <v>97.16</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2127,13 +2136,13 @@
         <v>680</v>
       </c>
       <c r="C17" s="1">
-        <v>0.249422829598188</v>
+        <v>0.0979275479912757</v>
       </c>
       <c r="D17" s="1">
-        <v>0.205961500810589</v>
+        <v>0.0848354609730611</v>
       </c>
       <c r="E17" s="1">
-        <v>93.86</v>
+        <v>97.28</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2144,13 +2153,13 @@
         <v>720</v>
       </c>
       <c r="C18" s="1">
-        <v>0.191898502409458</v>
+        <v>0.0955140255391597</v>
       </c>
       <c r="D18" s="1">
-        <v>0.193197560111048</v>
+        <v>0.0785529540768664</v>
       </c>
       <c r="E18" s="1">
-        <v>94.29</v>
+        <v>97.42</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2161,13 +2170,13 @@
         <v>760</v>
       </c>
       <c r="C19" s="1">
-        <v>0.246212786063551</v>
+        <v>0.0641575050540268</v>
       </c>
       <c r="D19" s="1">
-        <v>0.187782040565826</v>
+        <v>0.074260362640474</v>
       </c>
       <c r="E19" s="1">
-        <v>94.32</v>
+        <v>97.48</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2178,13 +2187,13 @@
         <v>800</v>
       </c>
       <c r="C20" s="1">
-        <v>0.222125107422471</v>
+        <v>0.060828979127109</v>
       </c>
       <c r="D20" s="1">
-        <v>0.181923820429546</v>
+        <v>0.0690749817687994</v>
       </c>
       <c r="E20" s="1">
-        <v>94.67</v>
+        <v>97.76</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2195,13 +2204,13 @@
         <v>840</v>
       </c>
       <c r="C21" s="1">
-        <v>0.239407319575548</v>
+        <v>0.0716643119230866</v>
       </c>
       <c r="D21" s="1">
-        <v>0.176460345744327</v>
+        <v>0.067391735074484</v>
       </c>
       <c r="E21" s="1">
-        <v>94.55</v>
+        <v>97.77</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2212,13 +2221,13 @@
         <v>880</v>
       </c>
       <c r="C22" s="1">
-        <v>0.222592383623123</v>
+        <v>0.0546260578557848</v>
       </c>
       <c r="D22" s="1">
-        <v>0.171068994648707</v>
+        <v>0.0657043804408638</v>
       </c>
       <c r="E22" s="1">
-        <v>94.83</v>
+        <v>97.81</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2229,13 +2238,13 @@
         <v>920</v>
       </c>
       <c r="C23" s="1">
-        <v>0.201618790626525</v>
+        <v>0.11879692133516</v>
       </c>
       <c r="D23" s="1">
-        <v>0.166426830942843</v>
+        <v>0.0597405222016179</v>
       </c>
       <c r="E23" s="1">
-        <v>94.99</v>
+        <v>97.99</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2246,13 +2255,13 @@
         <v>960</v>
       </c>
       <c r="C24" s="1">
-        <v>0.126792546361684</v>
+        <v>0.0626999172382056</v>
       </c>
       <c r="D24" s="1">
-        <v>0.162430930170853</v>
+        <v>0.0603208925788569</v>
       </c>
       <c r="E24" s="1">
-        <v>95.16</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2263,13 +2272,13 @@
         <v>1000</v>
       </c>
       <c r="C25" s="1">
-        <v>0.206982133910059</v>
+        <v>0.0470694610849022</v>
       </c>
       <c r="D25" s="1">
-        <v>0.163656957494984</v>
+        <v>0.0537425078374517</v>
       </c>
       <c r="E25" s="1">
-        <v>95.18</v>
+        <v>98.19</v>
       </c>
     </row>
   </sheetData>
@@ -2290,428 +2299,428 @@
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1">
+      <c r="A1" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <v>40</v>
       </c>
-      <c r="C1" s="1">
-        <v>0.794792637228965</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0.518051422515492</v>
-      </c>
-      <c r="E1" s="1">
-        <v>86.99</v>
+      <c r="C1" s="2">
+        <v>1.79168167710304</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1.70782434105113</v>
+      </c>
+      <c r="E1" s="2">
+        <v>77.16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>80</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.328075513243675</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.272416226945485</v>
-      </c>
-      <c r="E2" s="1">
-        <v>92.08</v>
+      <c r="C2" s="2">
+        <v>0.663644105195999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.605348975225618</v>
+      </c>
+      <c r="E2" s="2">
+        <v>84.82</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>120</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.219018453732132</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.201856447632905</v>
-      </c>
-      <c r="E3" s="1">
-        <v>94.03</v>
+      <c r="C3" s="2">
+        <v>0.631317988038063</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.433455196155864</v>
+      </c>
+      <c r="E3" s="2">
+        <v>87.82</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>160</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.354659281671047</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.171460810953834</v>
-      </c>
-      <c r="E4" s="1">
-        <v>94.84</v>
+      <c r="C4" s="2">
+        <v>0.5296131670475</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.373507554648788</v>
+      </c>
+      <c r="E4" s="2">
+        <v>89.19</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>200</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.263909336179494</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.139537956743578</v>
-      </c>
-      <c r="E5" s="1">
-        <v>95.69</v>
+      <c r="C5" s="2">
+        <v>0.346590764820575</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.339970389274275</v>
+      </c>
+      <c r="E5" s="2">
+        <v>89.93</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>240</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.1509046908468</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.114511694474394</v>
-      </c>
-      <c r="E6" s="1">
-        <v>96.57</v>
+      <c r="C6" s="2">
+        <v>0.344974938780069</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.316198626284007</v>
+      </c>
+      <c r="E6" s="2">
+        <v>90.77</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>280</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.182514406740665</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.101683223062449</v>
-      </c>
-      <c r="E7" s="1">
-        <v>96.88</v>
+      <c r="C7" s="2">
+        <v>0.47679179161787</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.313194109755716</v>
+      </c>
+      <c r="E7" s="2">
+        <v>90.89</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>320</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.149145130068063</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.0896258366288273</v>
-      </c>
-      <c r="E8" s="1">
-        <v>97.15</v>
+      <c r="C8" s="2">
+        <v>0.22492416203022</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.285657050788022</v>
+      </c>
+      <c r="E8" s="2">
+        <v>91.85</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>360</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.136695630848407</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.0815721887762949</v>
-      </c>
-      <c r="E9" s="1">
-        <v>97.42</v>
+      <c r="C9" s="2">
+        <v>0.241854783147573</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.270957863634559</v>
+      </c>
+      <c r="E9" s="2">
+        <v>92.05</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>400</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.0678369071392808</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.0721832838763666</v>
-      </c>
-      <c r="E10" s="1">
-        <v>97.68</v>
+      <c r="C10" s="2">
+        <v>0.414120890200138</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.267171057546214</v>
+      </c>
+      <c r="E10" s="2">
+        <v>92.33</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>440</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.119093605317175</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.0707391029028044</v>
-      </c>
-      <c r="E11" s="1">
-        <v>97.64</v>
+      <c r="C11" s="2">
+        <v>0.357823476195335</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.256082337515749</v>
+      </c>
+      <c r="E11" s="2">
+        <v>92.7</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>480</v>
       </c>
-      <c r="C12" s="1">
-        <v>0.101264183409512</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.0611750620868128</v>
-      </c>
-      <c r="E12" s="1">
-        <v>98.01</v>
+      <c r="C12" s="2">
+        <v>0.275702785700559</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.24752574399778</v>
+      </c>
+      <c r="E12" s="2">
+        <v>92.68</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>520</v>
       </c>
-      <c r="C13" s="1">
-        <v>0.0622182174120098</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.0600117485804162</v>
-      </c>
-      <c r="E13" s="1">
-        <v>98.07</v>
+      <c r="C13" s="2">
+        <v>0.247752025723457</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.242230397643177</v>
+      </c>
+      <c r="E13" s="2">
+        <v>92.7</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>560</v>
       </c>
-      <c r="C14" s="1">
-        <v>0.0785995200276374</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.0548440012072396</v>
-      </c>
-      <c r="E14" s="1">
-        <v>98.14</v>
+      <c r="C14" s="2">
+        <v>0.195792105048894</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.229272457278648</v>
+      </c>
+      <c r="E14" s="2">
+        <v>93.2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>600</v>
       </c>
-      <c r="C15" s="1">
-        <v>0.099876657128334</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.0561560430937701</v>
-      </c>
-      <c r="E15" s="1">
-        <v>98.01</v>
+      <c r="C15" s="2">
+        <v>0.179797556251287</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.216149013608124</v>
+      </c>
+      <c r="E15" s="2">
+        <v>93.74</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>640</v>
       </c>
-      <c r="C16" s="1">
-        <v>0.0376693364232778</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.0520908551002929</v>
-      </c>
-      <c r="E16" s="1">
-        <v>98.23</v>
+      <c r="C16" s="2">
+        <v>0.256562262773513</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.213523303247561</v>
+      </c>
+      <c r="E16" s="2">
+        <v>93.6</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>680</v>
       </c>
-      <c r="C17" s="1">
-        <v>0.0459068622440099</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.0475322326443567</v>
-      </c>
-      <c r="E17" s="1">
-        <v>98.35</v>
+      <c r="C17" s="2">
+        <v>0.249422829598188</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.205961500810589</v>
+      </c>
+      <c r="E17" s="2">
+        <v>93.86</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>720</v>
       </c>
-      <c r="C18" s="1">
-        <v>0.0704695088788867</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.0478282507989484</v>
-      </c>
-      <c r="E18" s="1">
-        <v>98.5</v>
+      <c r="C18" s="2">
+        <v>0.191898502409458</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.193197560111048</v>
+      </c>
+      <c r="E18" s="2">
+        <v>94.29</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>760</v>
       </c>
-      <c r="C19" s="1">
-        <v>0.0982819478958845</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.0485413189766821</v>
-      </c>
-      <c r="E19" s="1">
-        <v>98.39</v>
+      <c r="C19" s="2">
+        <v>0.246212786063551</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.187782040565826</v>
+      </c>
+      <c r="E19" s="2">
+        <v>94.32</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>800</v>
       </c>
-      <c r="C20" s="1">
-        <v>0.0646437580871861</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.0442896225166382</v>
-      </c>
-      <c r="E20" s="1">
-        <v>98.43</v>
+      <c r="C20" s="2">
+        <v>0.222125107422471</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.181923820429546</v>
+      </c>
+      <c r="E20" s="2">
+        <v>94.67</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>840</v>
       </c>
-      <c r="C21" s="1">
-        <v>0.0833303136751055</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.0418786295989207</v>
-      </c>
-      <c r="E21" s="1">
-        <v>98.57</v>
+      <c r="C21" s="2">
+        <v>0.239407319575548</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.176460345744327</v>
+      </c>
+      <c r="E21" s="2">
+        <v>94.55</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>880</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.0596815533936023</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.042777690879265</v>
-      </c>
-      <c r="E22" s="1">
-        <v>98.59</v>
+      <c r="C22" s="2">
+        <v>0.222592383623123</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.171068994648707</v>
+      </c>
+      <c r="E22" s="2">
+        <v>94.83</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>920</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.0311408177949488</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.0408847933971756</v>
-      </c>
-      <c r="E23" s="1">
-        <v>98.66</v>
+      <c r="C23" s="2">
+        <v>0.201618790626525</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.166426830942843</v>
+      </c>
+      <c r="E23" s="2">
+        <v>94.99</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>960</v>
       </c>
-      <c r="C24" s="1">
-        <v>0.0346772125922143</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.0402827328449162</v>
-      </c>
-      <c r="E24" s="1">
-        <v>98.73</v>
+      <c r="C24" s="2">
+        <v>0.126792546361684</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.162430930170853</v>
+      </c>
+      <c r="E24" s="2">
+        <v>95.16</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>1000</v>
       </c>
-      <c r="C25" s="1">
-        <v>0.0398419469129294</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.0395815557737947</v>
-      </c>
-      <c r="E25" s="1">
-        <v>98.69</v>
+      <c r="C25" s="2">
+        <v>0.206982133910059</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.163656957494984</v>
+      </c>
+      <c r="E25" s="2">
+        <v>95.18</v>
       </c>
     </row>
   </sheetData>
@@ -2725,435 +2734,435 @@
   <sheetPr/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="A1:E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1">
+      <c r="A1" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <v>40</v>
       </c>
-      <c r="C1" s="1">
-        <v>0.666057609021663</v>
-      </c>
-      <c r="D1" s="1">
-        <v>1.44165597599782</v>
-      </c>
-      <c r="E1" s="1">
-        <v>78.15</v>
+      <c r="C1" s="2">
+        <v>0.794792637228965</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0.518051422515492</v>
+      </c>
+      <c r="E1" s="2">
+        <v>86.99</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>80</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.291381314396858</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.755225289399456</v>
-      </c>
-      <c r="E2" s="1">
-        <v>83.78</v>
+      <c r="C2" s="2">
+        <v>0.328075513243675</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.272416226945485</v>
+      </c>
+      <c r="E2" s="2">
+        <v>92.08</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>120</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.246143419295549</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.552263557151624</v>
-      </c>
-      <c r="E3" s="1">
-        <v>85.94</v>
+      <c r="C3" s="2">
+        <v>0.219018453732132</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.201856447632905</v>
+      </c>
+      <c r="E3" s="2">
+        <v>94.03</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>160</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.289198152720928</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.469414346537012</v>
-      </c>
-      <c r="E4" s="1">
-        <v>87.02</v>
+      <c r="C4" s="2">
+        <v>0.354659281671047</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.171460810953834</v>
+      </c>
+      <c r="E4" s="2">
+        <v>94.84</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>200</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.199183192104101</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.428323236810174</v>
-      </c>
-      <c r="E5" s="1">
-        <v>87.44</v>
+      <c r="C5" s="2">
+        <v>0.263909336179494</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.139537956743578</v>
+      </c>
+      <c r="E5" s="2">
+        <v>95.69</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>240</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.218156795948743</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.393808875304118</v>
-      </c>
-      <c r="E6" s="1">
-        <v>88.65</v>
+      <c r="C6" s="2">
+        <v>0.1509046908468</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.114511694474394</v>
+      </c>
+      <c r="E6" s="2">
+        <v>96.57</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>280</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.161184922792017</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.389415077627844</v>
-      </c>
-      <c r="E7" s="1">
-        <v>87.97</v>
+      <c r="C7" s="2">
+        <v>0.182514406740665</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.101683223062449</v>
+      </c>
+      <c r="E7" s="2">
+        <v>96.88</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>320</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.238503195345401</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.355228753796048</v>
-      </c>
-      <c r="E8" s="1">
-        <v>89.29</v>
+      <c r="C8" s="2">
+        <v>0.149145130068063</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.0896258366288273</v>
+      </c>
+      <c r="E8" s="2">
+        <v>97.15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>360</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.231362026184797</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.342944632385187</v>
-      </c>
-      <c r="E9" s="1">
-        <v>89.74</v>
+      <c r="C9" s="2">
+        <v>0.136695630848407</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.0815721887762949</v>
+      </c>
+      <c r="E9" s="2">
+        <v>97.42</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>400</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.142524559050798</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.33639750226288</v>
-      </c>
-      <c r="E10" s="1">
-        <v>89.68</v>
+      <c r="C10" s="2">
+        <v>0.0678369071392808</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.0721832838763666</v>
+      </c>
+      <c r="E10" s="2">
+        <v>97.68</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>440</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.210498915985226</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.319407660490388</v>
-      </c>
-      <c r="E11" s="1">
-        <v>90.81</v>
+      <c r="C11" s="2">
+        <v>0.119093605317175</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.0707391029028044</v>
+      </c>
+      <c r="E11" s="2">
+        <v>97.64</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>480</v>
       </c>
-      <c r="C12" s="1">
-        <v>0.123952300287783</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.308153069512859</v>
-      </c>
-      <c r="E12" s="1">
-        <v>90.98</v>
+      <c r="C12" s="2">
+        <v>0.101264183409512</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.0611750620868128</v>
+      </c>
+      <c r="E12" s="2">
+        <v>98.01</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>520</v>
       </c>
-      <c r="C13" s="1">
-        <v>0.18295974843204</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.296731180398707</v>
-      </c>
-      <c r="E13" s="1">
-        <v>91.21</v>
+      <c r="C13" s="2">
+        <v>0.0622182174120098</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.0600117485804162</v>
+      </c>
+      <c r="E13" s="2">
+        <v>98.07</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>560</v>
       </c>
-      <c r="C14" s="1">
-        <v>0.158324727788567</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.29609823782163</v>
-      </c>
-      <c r="E14" s="1">
-        <v>90.83</v>
+      <c r="C14" s="2">
+        <v>0.0785995200276374</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.0548440012072396</v>
+      </c>
+      <c r="E14" s="2">
+        <v>98.14</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>600</v>
       </c>
-      <c r="C15" s="1">
-        <v>0.0919363885186612</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.28602960392548</v>
-      </c>
-      <c r="E15" s="1">
-        <v>91.47</v>
+      <c r="C15" s="2">
+        <v>0.099876657128334</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.0561560430937701</v>
+      </c>
+      <c r="E15" s="2">
+        <v>98.01</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>640</v>
       </c>
-      <c r="C16" s="1">
-        <v>0.136257298290729</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.277278123577688</v>
-      </c>
-      <c r="E16" s="1">
-        <v>91.7</v>
+      <c r="C16" s="2">
+        <v>0.0376693364232778</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.0520908551002929</v>
+      </c>
+      <c r="E16" s="2">
+        <v>98.23</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>680</v>
       </c>
-      <c r="C17" s="1">
-        <v>0.112251189537346</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.27326358465632</v>
-      </c>
-      <c r="E17" s="1">
-        <v>91.7</v>
+      <c r="C17" s="2">
+        <v>0.0459068622440099</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.0475322326443567</v>
+      </c>
+      <c r="E17" s="2">
+        <v>98.35</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>720</v>
       </c>
-      <c r="C18" s="1">
-        <v>0.154707171022892</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.269563723901274</v>
-      </c>
-      <c r="E18" s="1">
-        <v>92.09</v>
+      <c r="C18" s="2">
+        <v>0.0704695088788867</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.0478282507989484</v>
+      </c>
+      <c r="E18" s="2">
+        <v>98.5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>760</v>
       </c>
-      <c r="C19" s="1">
-        <v>0.125999711453914</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.25676167628188</v>
-      </c>
-      <c r="E19" s="1">
-        <v>92.49</v>
+      <c r="C19" s="2">
+        <v>0.0982819478958845</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.0485413189766821</v>
+      </c>
+      <c r="E19" s="2">
+        <v>98.39</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>800</v>
       </c>
-      <c r="C20" s="1">
-        <v>0.0895392652601003</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.2525918851043</v>
-      </c>
-      <c r="E20" s="1">
-        <v>92.51</v>
+      <c r="C20" s="2">
+        <v>0.0646437580871861</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.0442896225166382</v>
+      </c>
+      <c r="E20" s="2">
+        <v>98.43</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>840</v>
       </c>
-      <c r="C21" s="1">
-        <v>0.121257756836712</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.256571796194762</v>
-      </c>
-      <c r="E21" s="1">
-        <v>92.49</v>
+      <c r="C21" s="2">
+        <v>0.0833303136751055</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.0418786295989207</v>
+      </c>
+      <c r="E21" s="2">
+        <v>98.57</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>880</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.0951708732172846</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.245854294556341</v>
-      </c>
-      <c r="E22" s="1">
-        <v>92.7</v>
+      <c r="C22" s="2">
+        <v>0.0596815533936023</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.042777690879265</v>
+      </c>
+      <c r="E22" s="2">
+        <v>98.59</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>920</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.134988786652684</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.240902795296186</v>
-      </c>
-      <c r="E23" s="1">
-        <v>92.81</v>
+      <c r="C23" s="2">
+        <v>0.0311408177949488</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.0408847933971756</v>
+      </c>
+      <c r="E23" s="2">
+        <v>98.66</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>960</v>
       </c>
-      <c r="C24" s="1">
-        <v>0.168556143529713</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.238528508242148</v>
-      </c>
-      <c r="E24" s="1">
-        <v>92.76</v>
+      <c r="C24" s="2">
+        <v>0.0346772125922143</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.0402827328449162</v>
+      </c>
+      <c r="E24" s="2">
+        <v>98.73</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>1000</v>
       </c>
-      <c r="C25" s="1">
-        <v>0.128047198057174</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.233853239020344</v>
-      </c>
-      <c r="E25" s="1">
-        <v>93.03</v>
+      <c r="C25" s="2">
+        <v>0.0398419469129294</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.0395815557737947</v>
+      </c>
+      <c r="E25" s="2">
+        <v>98.69</v>
       </c>
     </row>
   </sheetData>
@@ -3168,7 +3177,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="A1" sqref="A1:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -3181,13 +3190,13 @@
         <v>40</v>
       </c>
       <c r="C1" s="1">
-        <v>0.360529027879238</v>
+        <v>1.97042128443717</v>
       </c>
       <c r="D1" s="1">
-        <v>0.947725581515366</v>
+        <v>1.40052968225661</v>
       </c>
       <c r="E1" s="1">
-        <v>79.77</v>
+        <v>67.42</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3198,13 +3207,13 @@
         <v>80</v>
       </c>
       <c r="C2" s="1">
-        <v>0.142837228253483</v>
+        <v>0.565163031220436</v>
       </c>
       <c r="D2" s="1">
-        <v>0.775081295496339</v>
+        <v>0.600983864372702</v>
       </c>
       <c r="E2" s="1">
-        <v>78.29</v>
+        <v>83.27</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3215,13 +3224,13 @@
         <v>120</v>
       </c>
       <c r="C3" s="1">
-        <v>0.164754621684551</v>
+        <v>0.33168713748455</v>
       </c>
       <c r="D3" s="1">
-        <v>0.363147058589443</v>
+        <v>0.468286381120894</v>
       </c>
       <c r="E3" s="1">
-        <v>89.24</v>
+        <v>89.35</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3232,13 +3241,13 @@
         <v>160</v>
       </c>
       <c r="C4" s="1">
-        <v>0.177277628332376</v>
+        <v>0.421934649348258</v>
       </c>
       <c r="D4" s="1">
-        <v>0.380813493328109</v>
+        <v>0.374292555650708</v>
       </c>
       <c r="E4" s="1">
-        <v>86.82</v>
+        <v>90.37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3249,13 +3258,13 @@
         <v>200</v>
       </c>
       <c r="C5" s="1">
-        <v>0.0861925869248807</v>
+        <v>0.319121170789003</v>
       </c>
       <c r="D5" s="1">
-        <v>0.553949287268006</v>
+        <v>0.302179537144056</v>
       </c>
       <c r="E5" s="1">
-        <v>82.7</v>
+        <v>91.05</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3266,13 +3275,13 @@
         <v>240</v>
       </c>
       <c r="C6" s="1">
-        <v>0.113164491951465</v>
+        <v>0.400319427251815</v>
       </c>
       <c r="D6" s="1">
-        <v>1.20786158768994</v>
+        <v>0.261857529710622</v>
       </c>
       <c r="E6" s="1">
-        <v>79.11</v>
+        <v>92.28</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3283,13 +3292,13 @@
         <v>280</v>
       </c>
       <c r="C7" s="1">
-        <v>0.0868740919977426</v>
+        <v>0.272651925683021</v>
       </c>
       <c r="D7" s="1">
-        <v>0.735379719810121</v>
+        <v>0.24156687043275</v>
       </c>
       <c r="E7" s="1">
-        <v>82.16</v>
+        <v>92.42</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3300,13 +3309,13 @@
         <v>320</v>
       </c>
       <c r="C8" s="1">
-        <v>0.0421965202549472</v>
+        <v>0.291063511744141</v>
       </c>
       <c r="D8" s="1">
-        <v>0.653914410976847</v>
+        <v>0.203229776898007</v>
       </c>
       <c r="E8" s="1">
-        <v>80.6</v>
+        <v>94.01</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3317,13 +3326,13 @@
         <v>360</v>
       </c>
       <c r="C9" s="1">
-        <v>0.0567345507442951</v>
+        <v>0.201253224164247</v>
       </c>
       <c r="D9" s="1">
-        <v>0.316703857747232</v>
+        <v>0.180792457667315</v>
       </c>
       <c r="E9" s="1">
-        <v>87.26</v>
+        <v>94.45</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3334,13 +3343,13 @@
         <v>400</v>
       </c>
       <c r="C10" s="1">
-        <v>0.0381073006428778</v>
+        <v>0.169187198393046</v>
       </c>
       <c r="D10" s="1">
-        <v>0.313419396069588</v>
+        <v>0.160015064843331</v>
       </c>
       <c r="E10" s="1">
-        <v>87.98</v>
+        <v>94.98</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3351,13 +3360,13 @@
         <v>440</v>
       </c>
       <c r="C11" s="1">
-        <v>0.0570551017299294</v>
+        <v>0.162419583648443</v>
       </c>
       <c r="D11" s="1">
-        <v>0.197576002639</v>
+        <v>0.153115696030532</v>
       </c>
       <c r="E11" s="1">
-        <v>92.79</v>
+        <v>95.24</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3368,13 +3377,13 @@
         <v>480</v>
       </c>
       <c r="C12" s="1">
-        <v>0.0556642008014023</v>
+        <v>0.139511864632368</v>
       </c>
       <c r="D12" s="1">
-        <v>0.182132930821104</v>
+        <v>0.135040450544588</v>
       </c>
       <c r="E12" s="1">
-        <v>93.3</v>
+        <v>95.78</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3385,13 +3394,13 @@
         <v>520</v>
       </c>
       <c r="C13" s="1">
-        <v>0.0340139295440167</v>
+        <v>0.209546821191906</v>
       </c>
       <c r="D13" s="1">
-        <v>0.106534029635938</v>
+        <v>0.122072445857486</v>
       </c>
       <c r="E13" s="1">
-        <v>96.74</v>
+        <v>96.35</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3402,13 +3411,13 @@
         <v>560</v>
       </c>
       <c r="C14" s="1">
-        <v>0.0649237954057753</v>
+        <v>0.111694330349564</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0916921517093944</v>
+        <v>0.114716405903173</v>
       </c>
       <c r="E14" s="1">
-        <v>97.18</v>
+        <v>96.55</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3419,13 +3428,13 @@
         <v>600</v>
       </c>
       <c r="C15" s="1">
-        <v>0.0441278659272939</v>
+        <v>0.0772867836058139</v>
       </c>
       <c r="D15" s="1">
-        <v>0.0957227960632295</v>
+        <v>0.103684991598129</v>
       </c>
       <c r="E15" s="1">
-        <v>97.18</v>
+        <v>96.97</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3436,13 +3445,13 @@
         <v>640</v>
       </c>
       <c r="C16" s="1">
-        <v>0.0442460544873029</v>
+        <v>0.130579057149589</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0828831759133156</v>
+        <v>0.102586356685704</v>
       </c>
       <c r="E16" s="1">
-        <v>97.47</v>
+        <v>96.82</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3453,13 +3462,13 @@
         <v>680</v>
       </c>
       <c r="C17" s="1">
-        <v>0.0458927722647786</v>
+        <v>0.0831189965829253</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0708882488476432</v>
+        <v>0.089580903007726</v>
       </c>
       <c r="E17" s="1">
-        <v>97.89</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3470,13 +3479,13 @@
         <v>720</v>
       </c>
       <c r="C18" s="1">
-        <v>0.0329393271822482</v>
+        <v>0.103463262319564</v>
       </c>
       <c r="D18" s="1">
-        <v>0.0716233113098438</v>
+        <v>0.0857861824570947</v>
       </c>
       <c r="E18" s="1">
-        <v>97.85</v>
+        <v>97.39</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3487,13 +3496,13 @@
         <v>760</v>
       </c>
       <c r="C19" s="1">
-        <v>0.0472042980836704</v>
+        <v>0.100653422996401</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0670025385234054</v>
+        <v>0.0815280138835263</v>
       </c>
       <c r="E19" s="1">
-        <v>97.93</v>
+        <v>97.48</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3504,13 +3513,13 @@
         <v>800</v>
       </c>
       <c r="C20" s="1">
-        <v>0.0365925803780555</v>
+        <v>0.089711501263082</v>
       </c>
       <c r="D20" s="1">
-        <v>0.0681880336065011</v>
+        <v>0.075623168841384</v>
       </c>
       <c r="E20" s="1">
-        <v>97.88</v>
+        <v>97.51</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3521,13 +3530,13 @@
         <v>840</v>
       </c>
       <c r="C21" s="1">
-        <v>0.0296196626732125</v>
+        <v>0.0916485730558633</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0643053550664691</v>
+        <v>0.0713799600430117</v>
       </c>
       <c r="E21" s="1">
-        <v>97.95</v>
+        <v>97.74</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3538,13 +3547,13 @@
         <v>880</v>
       </c>
       <c r="C22" s="1">
-        <v>0.0320012101146858</v>
+        <v>0.107102644629776</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0664939561170662</v>
+        <v>0.0687817565764591</v>
       </c>
       <c r="E22" s="1">
-        <v>97.98</v>
+        <v>97.86</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3555,13 +3564,13 @@
         <v>920</v>
       </c>
       <c r="C23" s="1">
-        <v>0.0432903068140149</v>
+        <v>0.0918895462527871</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0640196183215898</v>
+        <v>0.0615852495809649</v>
       </c>
       <c r="E23" s="1">
-        <v>98.07</v>
+        <v>97.98</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3572,13 +3581,13 @@
         <v>960</v>
       </c>
       <c r="C24" s="1">
-        <v>0.0280097855720669</v>
+        <v>0.0904342602007091</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0564690620674022</v>
+        <v>0.0596485594940033</v>
       </c>
       <c r="E24" s="1">
-        <v>98.2</v>
+        <v>98.15</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3589,13 +3598,1339 @@
         <v>1000</v>
       </c>
       <c r="C25" s="1">
+        <v>0.0503123733215034</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.0599004420374704</v>
+      </c>
+      <c r="E25" s="1">
+        <v>98.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="A1:E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0.666057609021663</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1.44165597599782</v>
+      </c>
+      <c r="E1" s="2">
+        <v>78.15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>80</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.291381314396858</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.755225289399456</v>
+      </c>
+      <c r="E2" s="2">
+        <v>83.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>120</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.246143419295549</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.552263557151624</v>
+      </c>
+      <c r="E3" s="2">
+        <v>85.94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>160</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.289198152720928</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.469414346537012</v>
+      </c>
+      <c r="E4" s="2">
+        <v>87.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>200</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.199183192104101</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.428323236810174</v>
+      </c>
+      <c r="E5" s="2">
+        <v>87.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>240</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.218156795948743</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.393808875304118</v>
+      </c>
+      <c r="E6" s="2">
+        <v>88.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>280</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.161184922792017</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.389415077627844</v>
+      </c>
+      <c r="E7" s="2">
+        <v>87.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>320</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.238503195345401</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.355228753796048</v>
+      </c>
+      <c r="E8" s="2">
+        <v>89.29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>360</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.231362026184797</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.342944632385187</v>
+      </c>
+      <c r="E9" s="2">
+        <v>89.74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>400</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.142524559050798</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.33639750226288</v>
+      </c>
+      <c r="E10" s="2">
+        <v>89.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>440</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.210498915985226</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.319407660490388</v>
+      </c>
+      <c r="E11" s="2">
+        <v>90.81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>480</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.123952300287783</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.308153069512859</v>
+      </c>
+      <c r="E12" s="2">
+        <v>90.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>520</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.18295974843204</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.296731180398707</v>
+      </c>
+      <c r="E13" s="2">
+        <v>91.21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>560</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.158324727788567</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.29609823782163</v>
+      </c>
+      <c r="E14" s="2">
+        <v>90.83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>600</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.0919363885186612</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.28602960392548</v>
+      </c>
+      <c r="E15" s="2">
+        <v>91.47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>640</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.136257298290729</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.277278123577688</v>
+      </c>
+      <c r="E16" s="2">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>680</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.112251189537346</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.27326358465632</v>
+      </c>
+      <c r="E17" s="2">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>720</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.154707171022892</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.269563723901274</v>
+      </c>
+      <c r="E18" s="2">
+        <v>92.09</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>760</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.125999711453914</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.25676167628188</v>
+      </c>
+      <c r="E19" s="2">
+        <v>92.49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>800</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.0895392652601003</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.2525918851043</v>
+      </c>
+      <c r="E20" s="2">
+        <v>92.51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>840</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.121257756836712</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.256571796194762</v>
+      </c>
+      <c r="E21" s="2">
+        <v>92.49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>880</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.0951708732172846</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.245854294556341</v>
+      </c>
+      <c r="E22" s="2">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>920</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.134988786652684</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.240902795296186</v>
+      </c>
+      <c r="E23" s="2">
+        <v>92.81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>960</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.168556143529713</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.238528508242148</v>
+      </c>
+      <c r="E24" s="2">
+        <v>92.76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.128047198057174</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.233853239020344</v>
+      </c>
+      <c r="E25" s="2">
+        <v>93.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0.360529027879238</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0.947725581515366</v>
+      </c>
+      <c r="E1" s="2">
+        <v>79.77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>80</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.142837228253483</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.775081295496339</v>
+      </c>
+      <c r="E2" s="2">
+        <v>78.29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>120</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.164754621684551</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.363147058589443</v>
+      </c>
+      <c r="E3" s="2">
+        <v>89.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>160</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.177277628332376</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.380813493328109</v>
+      </c>
+      <c r="E4" s="2">
+        <v>86.82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>200</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.0861925869248807</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.553949287268006</v>
+      </c>
+      <c r="E5" s="2">
+        <v>82.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>240</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.113164491951465</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.20786158768994</v>
+      </c>
+      <c r="E6" s="2">
+        <v>79.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>280</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.0868740919977426</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.735379719810121</v>
+      </c>
+      <c r="E7" s="2">
+        <v>82.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>320</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.0421965202549472</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.653914410976847</v>
+      </c>
+      <c r="E8" s="2">
+        <v>80.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>360</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.0567345507442951</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.316703857747232</v>
+      </c>
+      <c r="E9" s="2">
+        <v>87.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>400</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.0381073006428778</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.313419396069588</v>
+      </c>
+      <c r="E10" s="2">
+        <v>87.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>440</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.0570551017299294</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.197576002639</v>
+      </c>
+      <c r="E11" s="2">
+        <v>92.79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>480</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.0556642008014023</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.182132930821104</v>
+      </c>
+      <c r="E12" s="2">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>520</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.0340139295440167</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.106534029635938</v>
+      </c>
+      <c r="E13" s="2">
+        <v>96.74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>560</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.0649237954057753</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.0916921517093944</v>
+      </c>
+      <c r="E14" s="2">
+        <v>97.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>600</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.0441278659272939</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.0957227960632295</v>
+      </c>
+      <c r="E15" s="2">
+        <v>97.18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>640</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.0442460544873029</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.0828831759133156</v>
+      </c>
+      <c r="E16" s="2">
+        <v>97.47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>680</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.0458927722647786</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.0708882488476432</v>
+      </c>
+      <c r="E17" s="2">
+        <v>97.89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>720</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.0329393271822482</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.0716233113098438</v>
+      </c>
+      <c r="E18" s="2">
+        <v>97.85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>760</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.0472042980836704</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.0670025385234054</v>
+      </c>
+      <c r="E19" s="2">
+        <v>97.93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>800</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.0365925803780555</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.0681880336065011</v>
+      </c>
+      <c r="E20" s="2">
+        <v>97.88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>840</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.0296196626732125</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.0643053550664691</v>
+      </c>
+      <c r="E21" s="2">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>880</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.0320012101146858</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.0664939561170662</v>
+      </c>
+      <c r="E22" s="2">
+        <v>97.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>920</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.0432903068140149</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.0640196183215898</v>
+      </c>
+      <c r="E23" s="2">
+        <v>98.07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>960</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.0280097855720669</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.0564690620674022</v>
+      </c>
+      <c r="E24" s="2">
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C25" s="2">
         <v>0.00808326076366938</v>
       </c>
+      <c r="D25" s="2">
+        <v>0.0615333712579694</v>
+      </c>
+      <c r="E25" s="2">
+        <v>97.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.754732057452201</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.994931127615035</v>
+      </c>
+      <c r="E1" s="1">
+        <v>65.54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.258944503962993</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.863554414100707</v>
+      </c>
+      <c r="E2" s="1">
+        <v>78.09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>120</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.209806378930807</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.656019175698043</v>
+      </c>
+      <c r="E3" s="1">
+        <v>81.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>160</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.155724601820111</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.498514921896776</v>
+      </c>
+      <c r="E4" s="1">
+        <v>84.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>200</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.187887219246476</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.407277803891783</v>
+      </c>
+      <c r="E5" s="1">
+        <v>86.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>240</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.102481976151466</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.304288095634454</v>
+      </c>
+      <c r="E6" s="1">
+        <v>90.55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>280</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.134818950667977</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.273396116533097</v>
+      </c>
+      <c r="E7" s="1">
+        <v>91.54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>320</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0740058477967977</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.260074583635588</v>
+      </c>
+      <c r="E8" s="1">
+        <v>92.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>360</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.168795788660645</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.241426943973371</v>
+      </c>
+      <c r="E9" s="1">
+        <v>92.41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>400</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0711659276857972</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.222676496525668</v>
+      </c>
+      <c r="E10" s="1">
+        <v>92.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>440</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.112443756312131</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.199726590874848</v>
+      </c>
+      <c r="E11" s="1">
+        <v>93.63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>480</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.0917795719578862</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.204792496789792</v>
+      </c>
+      <c r="E12" s="1">
+        <v>93.28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>520</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0919274007901549</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.206914933837333</v>
+      </c>
+      <c r="E13" s="1">
+        <v>93.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>560</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.122420812025666</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.195922426784494</v>
+      </c>
+      <c r="E14" s="1">
+        <v>93.51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>600</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.100562272593379</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.176125094555555</v>
+      </c>
+      <c r="E15" s="1">
+        <v>94.29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>640</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.104594204574823</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.174747720953955</v>
+      </c>
+      <c r="E16" s="1">
+        <v>94.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>680</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.0732983429916203</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.218482477104018</v>
+      </c>
+      <c r="E17" s="1">
+        <v>92.29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>720</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.0469003701582551</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.204898389424108</v>
+      </c>
+      <c r="E18" s="1">
+        <v>93.13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>760</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.0917116743512451</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.157813933814407</v>
+      </c>
+      <c r="E19" s="1">
+        <v>94.81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>800</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.0473098456859588</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.14294277386633</v>
+      </c>
+      <c r="E20" s="1">
+        <v>95.34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>840</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.0710386466234922</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.137622883175588</v>
+      </c>
+      <c r="E21" s="1">
+        <v>95.53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>880</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.101121340878307</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.129775690282606</v>
+      </c>
+      <c r="E22" s="1">
+        <v>95.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>920</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.0539110860554501</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.120615636621406</v>
+      </c>
+      <c r="E23" s="1">
+        <v>96.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>960</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.0626865644007921</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.125768853327745</v>
+      </c>
+      <c r="E24" s="1">
+        <v>95.91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.0488961280789226</v>
+      </c>
       <c r="D25" s="1">
-        <v>0.0615333712579694</v>
+        <v>0.114420571168706</v>
       </c>
       <c r="E25" s="1">
-        <v>97.99</v>
+        <v>96.24</v>
       </c>
     </row>
   </sheetData>
